--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>goodmorningsam66@gmail.com</t>
   </si>
@@ -35,13 +35,43 @@
   </si>
   <si>
     <t>Петрович</t>
+  </si>
+  <si>
+    <t>Барков</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шаньгин </t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>ykfgodnew@gmail.com</t>
+  </si>
+  <si>
+    <t>Тихонов</t>
+  </si>
+  <si>
+    <t>Арутр</t>
+  </si>
+  <si>
+    <t>artur.tikhonov.97@mail.ru</t>
+  </si>
+  <si>
+    <t>sanya.barckov@yandex.ru</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +85,20 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,15 +116,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -385,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,53 +463,91 @@
     <col min="1" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>goodmorningsam66@gmail.com</t>
   </si>
@@ -65,13 +65,34 @@
   </si>
   <si>
     <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Крутин</t>
+  </si>
+  <si>
+    <t>Юрий</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>Пантюхин</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>nikiwasd@gmail,com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FF00B050"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -132,24 +161,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,30 +486,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4"/>
@@ -485,33 +519,35 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1"/>
@@ -519,37 +555,77 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="email" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>goodmorningsam66@gmail.com</t>
   </si>
@@ -86,13 +86,19 @@
   </si>
   <si>
     <t>nikiwasd@gmail,com</t>
+  </si>
+  <si>
+    <t>Витальевич</t>
+  </si>
+  <si>
+    <t>Давыдыч</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +133,30 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,14 +201,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -242,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -485,14 +513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -502,124 +530,124 @@
     <col min="10" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -627,5 +655,6 @@
     <hyperlink ref="D6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>